--- a/result/training_invest_result_es12.xlsx
+++ b/result/training_invest_result_es12.xlsx
@@ -726,16 +726,16 @@
         <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>0.02717056125402451</v>
+        <v>0.03952595070004463</v>
       </c>
       <c r="E2" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="F2" t="n">
         <v>9425392.75</v>
       </c>
-      <c r="F2" t="n">
-        <v>9320377</v>
-      </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -749,16 +749,16 @@
         <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>0.03088166937232018</v>
+        <v>0.0496261328458786</v>
       </c>
       <c r="E3" t="n">
-        <v>10242197.5</v>
+        <v>10000000</v>
       </c>
       <c r="F3" t="n">
-        <v>10824738.6</v>
+        <v>10991592.5</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -772,16 +772,16 @@
         <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>0.006492490414530039</v>
+        <v>0.006472061830572784</v>
       </c>
       <c r="E4" t="n">
-        <v>9564365.820249999</v>
+        <v>9598920.379249999</v>
       </c>
       <c r="F4" t="n">
-        <v>9564365.820249999</v>
+        <v>9598920.379249999</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -795,16 +795,16 @@
         <v>10</v>
       </c>
       <c r="D5" t="n">
-        <v>0.02348063699901104</v>
+        <v>0.02331160856410861</v>
       </c>
       <c r="E5" t="n">
-        <v>9700040.699999999</v>
+        <v>9773257.574999999</v>
       </c>
       <c r="F5" t="n">
-        <v>9500324.5</v>
+        <v>9572049.100000001</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -818,16 +818,16 @@
         <v>11</v>
       </c>
       <c r="D6" t="n">
-        <v>0.02698864229023457</v>
+        <v>0.02482126988470554</v>
       </c>
       <c r="E6" t="n">
         <v>10000000</v>
       </c>
       <c r="F6" t="n">
-        <v>9847390.900000002</v>
+        <v>10307393.2</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -841,16 +841,16 @@
         <v>12</v>
       </c>
       <c r="D7" t="n">
-        <v>0.03112585097551346</v>
+        <v>0.0172505259513855</v>
       </c>
       <c r="E7" t="n">
-        <v>10494167.5</v>
+        <v>10642214.755</v>
       </c>
       <c r="F7" t="n">
-        <v>10643395</v>
+        <v>10239507.1</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -864,16 +864,16 @@
         <v>13</v>
       </c>
       <c r="D8" t="n">
-        <v>0.039857167750597</v>
+        <v>0.03406967744231224</v>
       </c>
       <c r="E8" t="n">
-        <v>12355770.325</v>
+        <v>10000000</v>
       </c>
       <c r="F8" t="n">
-        <v>12294433.375</v>
+        <v>12411126.1</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -887,16 +887,16 @@
         <v>14</v>
       </c>
       <c r="D9" t="n">
-        <v>0.01180057972669601</v>
+        <v>0.008487940812483431</v>
       </c>
       <c r="E9" t="n">
-        <v>9529332.6</v>
+        <v>9306483.395000001</v>
       </c>
       <c r="F9" t="n">
-        <v>9730758.08</v>
+        <v>9579072.295000002</v>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -910,16 +910,16 @@
         <v>15</v>
       </c>
       <c r="D10" t="n">
-        <v>0.009932132437825203</v>
+        <v>0.006187250162474811</v>
       </c>
       <c r="E10" t="n">
-        <v>10365106.71925</v>
+        <v>10551820.68175</v>
       </c>
       <c r="F10" t="n">
-        <v>10365106.71925</v>
+        <v>10551820.68175</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -933,16 +933,16 @@
         <v>16</v>
       </c>
       <c r="D11" t="n">
-        <v>0.02346400916576385</v>
+        <v>0.009461281169205905</v>
       </c>
       <c r="E11" t="n">
-        <v>9925882.885499999</v>
+        <v>10195619.923</v>
       </c>
       <c r="F11" t="n">
-        <v>9925882.885499999</v>
+        <v>10063777.2575</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>702</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -956,16 +956,16 @@
         <v>17</v>
       </c>
       <c r="D12" t="n">
-        <v>0.01420450117439032</v>
+        <v>0.01429130928590894</v>
       </c>
       <c r="E12" t="n">
-        <v>9549060</v>
+        <v>9389884</v>
       </c>
       <c r="F12" t="n">
-        <v>9549060</v>
+        <v>9389884</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -979,16 +979,16 @@
         <v>18</v>
       </c>
       <c r="D13" t="n">
-        <v>0.04976852238178253</v>
+        <v>0.03337826188653707</v>
       </c>
       <c r="E13" t="n">
-        <v>10151971.05</v>
+        <v>11037373.785</v>
       </c>
       <c r="F13" t="n">
-        <v>10292844.31</v>
+        <v>10609623.1</v>
       </c>
       <c r="G13" t="n">
-        <v>25</v>
+        <v>15169</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1002,16 +1002,16 @@
         <v>19</v>
       </c>
       <c r="D14" t="n">
-        <v>0.01891838945448399</v>
+        <v>0.01855468545109034</v>
       </c>
       <c r="E14" t="n">
-        <v>10962944.795</v>
+        <v>10397321.7675</v>
       </c>
       <c r="F14" t="n">
-        <v>10962944.795</v>
+        <v>10397321.7675</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1025,16 +1025,16 @@
         <v>20</v>
       </c>
       <c r="D15" t="n">
-        <v>0.03527124971151352</v>
+        <v>0.03643303290009499</v>
       </c>
       <c r="E15" t="n">
-        <v>9870506.620000001</v>
+        <v>9468109.560000002</v>
       </c>
       <c r="F15" t="n">
-        <v>9935375.714999998</v>
+        <v>9826972.42</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1048,16 +1048,16 @@
         <v>21</v>
       </c>
       <c r="D16" t="n">
-        <v>0.07400642335414886</v>
+        <v>0.07822697721421719</v>
       </c>
       <c r="E16" t="n">
-        <v>9547471.045</v>
+        <v>9496454.629999999</v>
       </c>
       <c r="F16" t="n">
-        <v>9547471.045</v>
+        <v>9496454.629999999</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1071,16 +1071,16 @@
         <v>22</v>
       </c>
       <c r="D17" t="n">
-        <v>0.01278807688504457</v>
+        <v>0.005023994203656912</v>
       </c>
       <c r="E17" t="n">
-        <v>10485389.5465</v>
+        <v>9873739.865249997</v>
       </c>
       <c r="F17" t="n">
-        <v>10485389.5465</v>
+        <v>10423058.88925</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5735</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1094,16 +1094,16 @@
         <v>23</v>
       </c>
       <c r="D18" t="n">
-        <v>0.02051592990756035</v>
+        <v>0.02705428004264832</v>
       </c>
       <c r="E18" t="n">
-        <v>10755813.58</v>
+        <v>10977961.3965</v>
       </c>
       <c r="F18" t="n">
-        <v>10755813.58</v>
+        <v>10983622.579</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>2422</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1117,16 +1117,16 @@
         <v>24</v>
       </c>
       <c r="D19" t="n">
-        <v>0.03691659495234489</v>
+        <v>0.03146871756762266</v>
       </c>
       <c r="E19" t="n">
-        <v>10000000</v>
+        <v>10171132.75</v>
       </c>
       <c r="F19" t="n">
-        <v>10604014.4</v>
+        <v>10753120</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1140,16 +1140,16 @@
         <v>25</v>
       </c>
       <c r="D20" t="n">
-        <v>0.04991137236356735</v>
+        <v>0.05369329638779163</v>
       </c>
       <c r="E20" t="n">
-        <v>9958850.765000001</v>
+        <v>10009389.145</v>
       </c>
       <c r="F20" t="n">
-        <v>9009012.799999999</v>
+        <v>9301558.589999998</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>4789</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1163,16 +1163,16 @@
         <v>26</v>
       </c>
       <c r="D21" t="n">
-        <v>0.03244498372077942</v>
+        <v>0.0317487807944417</v>
       </c>
       <c r="E21" t="n">
-        <v>9878511.700000001</v>
+        <v>10214065</v>
       </c>
       <c r="F21" t="n">
-        <v>11354371.675</v>
+        <v>11402212.7</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1186,16 +1186,16 @@
         <v>27</v>
       </c>
       <c r="D22" t="n">
-        <v>0.05828066915273666</v>
+        <v>0.05721698775887489</v>
       </c>
       <c r="E22" t="n">
-        <v>10022931.965</v>
+        <v>9873117.890000001</v>
       </c>
       <c r="F22" t="n">
-        <v>10022931.965</v>
+        <v>9873117.890000001</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1209,16 +1209,16 @@
         <v>28</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0339086540043354</v>
+        <v>0.008137900452129542</v>
       </c>
       <c r="E23" t="n">
-        <v>10000000</v>
+        <v>10793873.59575</v>
       </c>
       <c r="F23" t="n">
-        <v>10941473.26</v>
+        <v>11364767.2165</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>11470</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1232,16 +1232,16 @@
         <v>29</v>
       </c>
       <c r="D24" t="n">
-        <v>0.01093252468854189</v>
+        <v>0.008836156036704779</v>
       </c>
       <c r="E24" t="n">
-        <v>9046404.451999998</v>
+        <v>9005486.106000001</v>
       </c>
       <c r="F24" t="n">
-        <v>9046404.451999998</v>
+        <v>9005486.106000001</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1255,16 +1255,16 @@
         <v>30</v>
       </c>
       <c r="D25" t="n">
-        <v>0.03978189826011658</v>
+        <v>0.04929664228111506</v>
       </c>
       <c r="E25" t="n">
-        <v>9926016.975</v>
+        <v>10000000</v>
       </c>
       <c r="F25" t="n">
-        <v>10278170.88</v>
+        <v>10559623.485</v>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1278,16 +1278,16 @@
         <v>31</v>
       </c>
       <c r="D26" t="n">
-        <v>0.02848497591912746</v>
+        <v>0.02703426815569401</v>
       </c>
       <c r="E26" t="n">
-        <v>9925925.6875</v>
+        <v>10073909.625</v>
       </c>
       <c r="F26" t="n">
-        <v>11209350.48</v>
+        <v>11052390.71</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1301,16 +1301,16 @@
         <v>32</v>
       </c>
       <c r="D27" t="n">
-        <v>0.04926101118326187</v>
+        <v>0.01309754573740065</v>
       </c>
       <c r="E27" t="n">
-        <v>10683189</v>
+        <v>10087397.4875</v>
       </c>
       <c r="F27" t="n">
-        <v>10683189</v>
+        <v>10696869.5125</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>8227</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1324,16 +1324,16 @@
         <v>33</v>
       </c>
       <c r="D28" t="n">
-        <v>0.03415520861744881</v>
+        <v>0.01808511232957244</v>
       </c>
       <c r="E28" t="n">
-        <v>9947021.199999999</v>
+        <v>9557040</v>
       </c>
       <c r="F28" t="n">
-        <v>10315317.85</v>
+        <v>10276430.875</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>3447</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1347,16 +1347,16 @@
         <v>34</v>
       </c>
       <c r="D29" t="n">
-        <v>0.01935409940779209</v>
+        <v>0.009658195963129401</v>
       </c>
       <c r="E29" t="n">
-        <v>9489150.2545</v>
+        <v>9644565.6</v>
       </c>
       <c r="F29" t="n">
-        <v>9489150.2545</v>
+        <v>9644565.6</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>129</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1370,16 +1370,16 @@
         <v>35</v>
       </c>
       <c r="D30" t="n">
-        <v>0.02742949873209</v>
+        <v>0.01020027617923915</v>
       </c>
       <c r="E30" t="n">
-        <v>10114156</v>
+        <v>10199820.005</v>
       </c>
       <c r="F30" t="n">
-        <v>11242315.9</v>
+        <v>11126721.75</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>12317</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1393,16 +1393,16 @@
         <v>36</v>
       </c>
       <c r="D31" t="n">
-        <v>0.01181421242654324</v>
+        <v>0.001974197046365589</v>
       </c>
       <c r="E31" t="n">
-        <v>10772914.728</v>
+        <v>10305928.555</v>
       </c>
       <c r="F31" t="n">
-        <v>10423246.1275</v>
+        <v>10329587.148</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>9963</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1416,16 +1416,16 @@
         <v>37</v>
       </c>
       <c r="D32" t="n">
-        <v>0.04470842704176903</v>
+        <v>0.04363764896988868</v>
       </c>
       <c r="E32" t="n">
         <v>10000000</v>
       </c>
       <c r="F32" t="n">
-        <v>11523139.2</v>
+        <v>11288759.275</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1439,16 +1439,16 @@
         <v>38</v>
       </c>
       <c r="D33" t="n">
-        <v>0.03438944742083549</v>
+        <v>0.0345006575807929</v>
       </c>
       <c r="E33" t="n">
         <v>9947318</v>
       </c>
       <c r="F33" t="n">
-        <v>9706019.949999999</v>
+        <v>9544997.350000001</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>191</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1462,16 +1462,16 @@
         <v>39</v>
       </c>
       <c r="D34" t="n">
-        <v>0.03774724155664444</v>
+        <v>0.0240350941196084</v>
       </c>
       <c r="E34" t="n">
-        <v>10055874</v>
+        <v>9917824.73</v>
       </c>
       <c r="F34" t="n">
-        <v>8890053.120000001</v>
+        <v>8996404.33</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>122</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1485,16 +1485,16 @@
         <v>40</v>
       </c>
       <c r="D35" t="n">
-        <v>0.06248275563120842</v>
+        <v>0.06263486072421073</v>
       </c>
       <c r="E35" t="n">
-        <v>10310583.91</v>
+        <v>10387830.535</v>
       </c>
       <c r="F35" t="n">
-        <v>10310583.91</v>
+        <v>10387830.535</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>628</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1508,16 +1508,16 @@
         <v>41</v>
       </c>
       <c r="D36" t="n">
-        <v>0.04952950775623322</v>
+        <v>0.03293509501963854</v>
       </c>
       <c r="E36" t="n">
-        <v>9816209.800000001</v>
+        <v>10429342.6</v>
       </c>
       <c r="F36" t="n">
-        <v>9621503.199999999</v>
+        <v>9654624.75</v>
       </c>
       <c r="G36" t="n">
-        <v>35</v>
+        <v>8352</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1531,16 +1531,16 @@
         <v>42</v>
       </c>
       <c r="D37" t="n">
-        <v>0.01703177392482758</v>
+        <v>0.01769271278753877</v>
       </c>
       <c r="E37" t="n">
-        <v>10889626.29265</v>
+        <v>11411299.5985</v>
       </c>
       <c r="F37" t="n">
-        <v>10889626.29265</v>
+        <v>11411299.5985</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1554,16 +1554,16 @@
         <v>43</v>
       </c>
       <c r="D38" t="n">
-        <v>0.09260518103837967</v>
+        <v>0.2263863749802112</v>
       </c>
       <c r="E38" t="n">
-        <v>9925129.619999999</v>
+        <v>10014384.25</v>
       </c>
       <c r="F38" t="n">
-        <v>9925129.619999999</v>
+        <v>10014384.25</v>
       </c>
       <c r="G38" t="n">
-        <v>460</v>
+        <v>94</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1577,16 +1577,16 @@
         <v>44</v>
       </c>
       <c r="D39" t="n">
-        <v>0.03887729719281197</v>
+        <v>0.03135153446346521</v>
       </c>
       <c r="E39" t="n">
-        <v>10773227.059</v>
+        <v>10262995.027</v>
       </c>
       <c r="F39" t="n">
-        <v>10773227.059</v>
+        <v>10852761.94</v>
       </c>
       <c r="G39" t="n">
-        <v>1</v>
+        <v>710</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1600,16 +1600,16 @@
         <v>45</v>
       </c>
       <c r="D40" t="n">
-        <v>0.04964232817292213</v>
+        <v>0.04920637086033821</v>
       </c>
       <c r="E40" t="n">
         <v>10000000</v>
       </c>
       <c r="F40" t="n">
-        <v>10078595.8</v>
+        <v>10090534</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>519</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1623,16 +1623,16 @@
         <v>46</v>
       </c>
       <c r="D41" t="n">
-        <v>0.04147336259484291</v>
+        <v>0.03704271726310253</v>
       </c>
       <c r="E41" t="n">
         <v>9599120.5</v>
       </c>
       <c r="F41" t="n">
-        <v>9147230.699999999</v>
+        <v>9208376.875</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1646,16 +1646,16 @@
         <v>47</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0263104010373354</v>
+        <v>0.02744639320299029</v>
       </c>
       <c r="E42" t="n">
-        <v>10325962.767</v>
+        <v>10468072.11525</v>
       </c>
       <c r="F42" t="n">
-        <v>10325962.767</v>
+        <v>10468072.11525</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1669,16 +1669,16 @@
         <v>48</v>
       </c>
       <c r="D43" t="n">
-        <v>0.03904782980680466</v>
+        <v>0.04011819940060377</v>
       </c>
       <c r="E43" t="n">
         <v>9985883.949999999</v>
       </c>
       <c r="F43" t="n">
-        <v>10568284.6</v>
+        <v>10253564.85</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>127</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1692,16 +1692,16 @@
         <v>49</v>
       </c>
       <c r="D44" t="n">
-        <v>0.03071777336299419</v>
+        <v>0.02985856337472797</v>
       </c>
       <c r="E44" t="n">
-        <v>9760366.475000001</v>
+        <v>10000000</v>
       </c>
       <c r="F44" t="n">
-        <v>10206936.75</v>
+        <v>10236402.2</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>146</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1715,16 +1715,16 @@
         <v>50</v>
       </c>
       <c r="D45" t="n">
-        <v>0.02131662331521511</v>
+        <v>0.003210706228855997</v>
       </c>
       <c r="E45" t="n">
-        <v>8188607.925</v>
+        <v>8213727.887500001</v>
       </c>
       <c r="F45" t="n">
-        <v>8188607.925</v>
+        <v>8213727.887500001</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>427</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1738,16 +1738,16 @@
         <v>51</v>
       </c>
       <c r="D46" t="n">
-        <v>0.02208730392158031</v>
+        <v>0.02111118314787746</v>
       </c>
       <c r="E46" t="n">
         <v>9754987.899999999</v>
       </c>
       <c r="F46" t="n">
-        <v>9663252.440000001</v>
+        <v>9864819.339999998</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1761,16 +1761,16 @@
         <v>52</v>
       </c>
       <c r="D47" t="n">
-        <v>0.02440044470131397</v>
+        <v>0.0259251257404685</v>
       </c>
       <c r="E47" t="n">
-        <v>11555940.1</v>
+        <v>11494753.72</v>
       </c>
       <c r="F47" t="n">
-        <v>13729034.79</v>
+        <v>13206556.375</v>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>74</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1784,16 +1784,16 @@
         <v>53</v>
       </c>
       <c r="D48" t="n">
-        <v>0.01515370700508356</v>
+        <v>0.01509263049811125</v>
       </c>
       <c r="E48" t="n">
-        <v>10478691.874</v>
+        <v>10430580.08</v>
       </c>
       <c r="F48" t="n">
-        <v>10478691.874</v>
+        <v>10430580.08</v>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1807,16 +1807,16 @@
         <v>54</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0442601777613163</v>
+        <v>0.01491332272998989</v>
       </c>
       <c r="E49" t="n">
-        <v>10218669.482</v>
+        <v>10033437.48425</v>
       </c>
       <c r="F49" t="n">
-        <v>10218669.482</v>
+        <v>10281649.445</v>
       </c>
       <c r="G49" t="n">
-        <v>0</v>
+        <v>3838</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1830,16 +1830,16 @@
         <v>55</v>
       </c>
       <c r="D50" t="n">
-        <v>0.03822419419884682</v>
+        <v>0.03911262191832066</v>
       </c>
       <c r="E50" t="n">
         <v>10000000</v>
       </c>
       <c r="F50" t="n">
-        <v>10140048.6</v>
+        <v>10580740.65</v>
       </c>
       <c r="G50" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1853,16 +1853,16 @@
         <v>56</v>
       </c>
       <c r="D51" t="n">
-        <v>0.02849862538278103</v>
+        <v>0.01120839868672192</v>
       </c>
       <c r="E51" t="n">
-        <v>9519946.8355</v>
+        <v>9619054.045</v>
       </c>
       <c r="F51" t="n">
-        <v>9519946.8355</v>
+        <v>9414279.025</v>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>10298</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1876,16 +1876,16 @@
         <v>57</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0203417893499136</v>
+        <v>0.01286430903710425</v>
       </c>
       <c r="E52" t="n">
-        <v>9683307.819499999</v>
+        <v>9536278.5405</v>
       </c>
       <c r="F52" t="n">
-        <v>9683307.819499999</v>
+        <v>9536278.5405</v>
       </c>
       <c r="G52" t="n">
-        <v>0</v>
+        <v>182</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1899,16 +1899,16 @@
         <v>58</v>
       </c>
       <c r="D53" t="n">
-        <v>0.02757318876683712</v>
+        <v>0.01052593435160816</v>
       </c>
       <c r="E53" t="n">
-        <v>10000000</v>
+        <v>11142111.1175</v>
       </c>
       <c r="F53" t="n">
-        <v>10897600.375</v>
+        <v>11566131.625</v>
       </c>
       <c r="G53" t="n">
-        <v>0</v>
+        <v>428</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1922,16 +1922,16 @@
         <v>59</v>
       </c>
       <c r="D54" t="n">
-        <v>0.04772640392184258</v>
+        <v>0.04720098599791527</v>
       </c>
       <c r="E54" t="n">
-        <v>10444247.23</v>
+        <v>10406825.3125</v>
       </c>
       <c r="F54" t="n">
-        <v>10444247.23</v>
+        <v>10406825.3125</v>
       </c>
       <c r="G54" t="n">
-        <v>0</v>
+        <v>159</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1945,16 +1945,16 @@
         <v>60</v>
       </c>
       <c r="D55" t="n">
-        <v>0.01357599347829819</v>
+        <v>0.006091961055062711</v>
       </c>
       <c r="E55" t="n">
-        <v>9486934.875</v>
+        <v>9530668.525</v>
       </c>
       <c r="F55" t="n">
-        <v>9486934.875</v>
+        <v>9438147.475</v>
       </c>
       <c r="G55" t="n">
-        <v>0</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1968,16 +1968,16 @@
         <v>61</v>
       </c>
       <c r="D56" t="n">
-        <v>0.009983092546463013</v>
+        <v>0.01018636473454535</v>
       </c>
       <c r="E56" t="n">
         <v>10000000</v>
       </c>
       <c r="F56" t="n">
-        <v>11272303.4725</v>
+        <v>11060536.135</v>
       </c>
       <c r="G56" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -1991,16 +1991,16 @@
         <v>62</v>
       </c>
       <c r="D57" t="n">
-        <v>0.03728998079895973</v>
+        <v>0.01269624321721494</v>
       </c>
       <c r="E57" t="n">
-        <v>9482541.949999997</v>
+        <v>9234449.4925</v>
       </c>
       <c r="F57" t="n">
-        <v>9100947.385</v>
+        <v>9421651.8575</v>
       </c>
       <c r="G57" t="n">
-        <v>0</v>
+        <v>12383</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -2014,16 +2014,16 @@
         <v>63</v>
       </c>
       <c r="D58" t="n">
-        <v>0.02566115371882915</v>
+        <v>0.02752986392006278</v>
       </c>
       <c r="E58" t="n">
         <v>9631633.235000001</v>
       </c>
       <c r="F58" t="n">
-        <v>9322737.390000001</v>
+        <v>9279008.200000001</v>
       </c>
       <c r="G58" t="n">
-        <v>0</v>
+        <v>77</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -2037,16 +2037,16 @@
         <v>64</v>
       </c>
       <c r="D59" t="n">
-        <v>0.01814601756632328</v>
+        <v>0.01850349791347981</v>
       </c>
       <c r="E59" t="n">
-        <v>10625116.8675</v>
+        <v>10380950.4375</v>
       </c>
       <c r="F59" t="n">
-        <v>10751263.8475</v>
+        <v>10559937.84</v>
       </c>
       <c r="G59" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2060,16 +2060,16 @@
         <v>65</v>
       </c>
       <c r="D60" t="n">
-        <v>0.03932132944464684</v>
+        <v>0.03923164866864681</v>
       </c>
       <c r="E60" t="n">
-        <v>10541620.45</v>
+        <v>10744468.13</v>
       </c>
       <c r="F60" t="n">
-        <v>11446516.36</v>
+        <v>11700673.9575</v>
       </c>
       <c r="G60" t="n">
-        <v>0</v>
+        <v>969</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -2083,16 +2083,16 @@
         <v>66</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0272427536547184</v>
+        <v>0.01882976191118359</v>
       </c>
       <c r="E61" t="n">
-        <v>9875115.43</v>
+        <v>10222325.2675</v>
       </c>
       <c r="F61" t="n">
-        <v>9875115.43</v>
+        <v>10222325.2675</v>
       </c>
       <c r="G61" t="n">
-        <v>0</v>
+        <v>122</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2106,16 +2106,16 @@
         <v>67</v>
       </c>
       <c r="D62" t="n">
-        <v>0.02766719274222851</v>
+        <v>0.008068099990487099</v>
       </c>
       <c r="E62" t="n">
-        <v>10000000</v>
+        <v>9729775.285000002</v>
       </c>
       <c r="F62" t="n">
-        <v>9396570.5075</v>
+        <v>9519674.98</v>
       </c>
       <c r="G62" t="n">
-        <v>0</v>
+        <v>986</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2129,16 +2129,16 @@
         <v>68</v>
       </c>
       <c r="D63" t="n">
-        <v>0.01936107128858566</v>
+        <v>0.004859160631895065</v>
       </c>
       <c r="E63" t="n">
-        <v>10039115.4904</v>
+        <v>10000000</v>
       </c>
       <c r="F63" t="n">
-        <v>10039115.4904</v>
+        <v>10133825.274</v>
       </c>
       <c r="G63" t="n">
-        <v>0</v>
+        <v>790</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2152,16 +2152,16 @@
         <v>69</v>
       </c>
       <c r="D64" t="n">
-        <v>0.04519754648208618</v>
+        <v>0.04369961284101009</v>
       </c>
       <c r="E64" t="n">
-        <v>10294722.865</v>
+        <v>10345366.6375</v>
       </c>
       <c r="F64" t="n">
-        <v>10294722.865</v>
+        <v>10345366.6375</v>
       </c>
       <c r="G64" t="n">
-        <v>0</v>
+        <v>320</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2175,16 +2175,16 @@
         <v>70</v>
       </c>
       <c r="D65" t="n">
-        <v>0.03809141740202904</v>
+        <v>0.01114795408211649</v>
       </c>
       <c r="E65" t="n">
-        <v>10000000</v>
+        <v>12332526.115</v>
       </c>
       <c r="F65" t="n">
-        <v>13867455.525</v>
+        <v>13205379.36</v>
       </c>
       <c r="G65" t="n">
-        <v>0</v>
+        <v>12801</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -2198,16 +2198,16 @@
         <v>71</v>
       </c>
       <c r="D66" t="n">
-        <v>0.01327136345207691</v>
+        <v>0.01276175598613918</v>
       </c>
       <c r="E66" t="n">
-        <v>9200483.639999999</v>
+        <v>9330350.442499999</v>
       </c>
       <c r="F66" t="n">
-        <v>9200483.639999999</v>
+        <v>9330350.442499999</v>
       </c>
       <c r="G66" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -2221,16 +2221,16 @@
         <v>72</v>
       </c>
       <c r="D67" t="n">
-        <v>0.01947787962853909</v>
+        <v>0.0188700195401907</v>
       </c>
       <c r="E67" t="n">
-        <v>11302611.125</v>
+        <v>11377286.71</v>
       </c>
       <c r="F67" t="n">
-        <v>10952595.97</v>
+        <v>10899237.1075</v>
       </c>
       <c r="G67" t="n">
-        <v>0</v>
+        <v>122</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -2244,16 +2244,16 @@
         <v>73</v>
       </c>
       <c r="D68" t="n">
-        <v>0.02237865328788757</v>
+        <v>0.02173655396327377</v>
       </c>
       <c r="E68" t="n">
-        <v>9346711.75</v>
+        <v>9271668.415000001</v>
       </c>
       <c r="F68" t="n">
-        <v>9346711.75</v>
+        <v>9271668.415000001</v>
       </c>
       <c r="G68" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -2267,16 +2267,16 @@
         <v>74</v>
       </c>
       <c r="D69" t="n">
-        <v>0.01640105806291103</v>
+        <v>0.01661918107420206</v>
       </c>
       <c r="E69" t="n">
-        <v>11890990.429</v>
+        <v>11391873.3066</v>
       </c>
       <c r="F69" t="n">
-        <v>11118085.15715</v>
+        <v>10651409.0589</v>
       </c>
       <c r="G69" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2290,16 +2290,16 @@
         <v>75</v>
       </c>
       <c r="D70" t="n">
-        <v>0.03179912269115448</v>
+        <v>0.01815221318975091</v>
       </c>
       <c r="E70" t="n">
-        <v>10096490.825</v>
+        <v>10166703.2475</v>
       </c>
       <c r="F70" t="n">
-        <v>10096490.825</v>
+        <v>9892816.048</v>
       </c>
       <c r="G70" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2313,16 +2313,16 @@
         <v>76</v>
       </c>
       <c r="D71" t="n">
-        <v>0.01800170913338661</v>
+        <v>0.004351173411123455</v>
       </c>
       <c r="E71" t="n">
-        <v>10000000</v>
+        <v>10768531.13</v>
       </c>
       <c r="F71" t="n">
-        <v>10166919.09</v>
+        <v>10885165.81</v>
       </c>
       <c r="G71" t="n">
-        <v>0</v>
+        <v>2476</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2336,16 +2336,16 @@
         <v>77</v>
       </c>
       <c r="D72" t="n">
-        <v>0.01679045893251896</v>
+        <v>0.01690326193347573</v>
       </c>
       <c r="E72" t="n">
         <v>10456125.475</v>
       </c>
       <c r="F72" t="n">
-        <v>12391775.75</v>
+        <v>12320247.25</v>
       </c>
       <c r="G72" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2359,16 +2359,16 @@
         <v>78</v>
       </c>
       <c r="D73" t="n">
-        <v>0.04555119946599007</v>
+        <v>0.04515472035855055</v>
       </c>
       <c r="E73" t="n">
-        <v>12575928.8875</v>
+        <v>13133103.9725</v>
       </c>
       <c r="F73" t="n">
-        <v>12095747.9725</v>
+        <v>11943084</v>
       </c>
       <c r="G73" t="n">
-        <v>0</v>
+        <v>119</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2382,16 +2382,16 @@
         <v>79</v>
       </c>
       <c r="D74" t="n">
-        <v>0.03830146789550781</v>
+        <v>0.01880097845569253</v>
       </c>
       <c r="E74" t="n">
         <v>10000000</v>
       </c>
       <c r="F74" t="n">
-        <v>9947093.279999997</v>
+        <v>10020267.6</v>
       </c>
       <c r="G74" t="n">
-        <v>4</v>
+        <v>6399</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2405,16 +2405,16 @@
         <v>80</v>
       </c>
       <c r="D75" t="n">
-        <v>0.04994671046733856</v>
+        <v>0.04896838180720806</v>
       </c>
       <c r="E75" t="n">
-        <v>8514469</v>
+        <v>9673416.25</v>
       </c>
       <c r="F75" t="n">
-        <v>8514469</v>
+        <v>9673416.25</v>
       </c>
       <c r="G75" t="n">
-        <v>8</v>
+        <v>12025</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2428,16 +2428,16 @@
         <v>81</v>
       </c>
       <c r="D76" t="n">
-        <v>0.02690117619931698</v>
+        <v>0.02643391517922282</v>
       </c>
       <c r="E76" t="n">
-        <v>11812227.76</v>
+        <v>11777312.531</v>
       </c>
       <c r="F76" t="n">
-        <v>11812227.76</v>
+        <v>11777312.531</v>
       </c>
       <c r="G76" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2451,16 +2451,16 @@
         <v>82</v>
       </c>
       <c r="D77" t="n">
-        <v>0.04276004806160927</v>
+        <v>0.01857582358643413</v>
       </c>
       <c r="E77" t="n">
-        <v>10179962.38</v>
+        <v>10718276.82</v>
       </c>
       <c r="F77" t="n">
-        <v>10583473.54</v>
+        <v>10753886.575</v>
       </c>
       <c r="G77" t="n">
-        <v>0</v>
+        <v>9075</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2474,16 +2474,16 @@
         <v>83</v>
       </c>
       <c r="D78" t="n">
-        <v>0.04387723281979561</v>
+        <v>0.03529992680996656</v>
       </c>
       <c r="E78" t="n">
-        <v>11264412.46125</v>
+        <v>10000000</v>
       </c>
       <c r="F78" t="n">
-        <v>10867357.9795</v>
+        <v>10753085.242</v>
       </c>
       <c r="G78" t="n">
-        <v>0</v>
+        <v>152</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2497,16 +2497,16 @@
         <v>84</v>
       </c>
       <c r="D79" t="n">
-        <v>0.009855153970420361</v>
+        <v>0.01080793691799045</v>
       </c>
       <c r="E79" t="n">
-        <v>9503850.262</v>
+        <v>9798737.626</v>
       </c>
       <c r="F79" t="n">
-        <v>9503850.262</v>
+        <v>9798737.626</v>
       </c>
       <c r="G79" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2520,16 +2520,16 @@
         <v>85</v>
       </c>
       <c r="D80" t="n">
-        <v>0.02108414098620415</v>
+        <v>0.02063077576458454</v>
       </c>
       <c r="E80" t="n">
-        <v>9496393.105</v>
+        <v>9492430.664999999</v>
       </c>
       <c r="F80" t="n">
-        <v>9496393.105</v>
+        <v>9492430.664999999</v>
       </c>
       <c r="G80" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -2543,16 +2543,16 @@
         <v>86</v>
       </c>
       <c r="D81" t="n">
-        <v>0.02068441733717918</v>
+        <v>0.006185734597966075</v>
       </c>
       <c r="E81" t="n">
-        <v>9849497.192500001</v>
+        <v>10026434.9755</v>
       </c>
       <c r="F81" t="n">
-        <v>9745194.799000001</v>
+        <v>9991352.102499999</v>
       </c>
       <c r="G81" t="n">
-        <v>0</v>
+        <v>706</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -2566,16 +2566,16 @@
         <v>87</v>
       </c>
       <c r="D82" t="n">
-        <v>0.02236206643283367</v>
+        <v>0.02217048145830631</v>
       </c>
       <c r="E82" t="n">
-        <v>10375742.8</v>
+        <v>10207813.45</v>
       </c>
       <c r="F82" t="n">
-        <v>10350110.35</v>
+        <v>10182813.9</v>
       </c>
       <c r="G82" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -2589,16 +2589,16 @@
         <v>88</v>
       </c>
       <c r="D83" t="n">
-        <v>0.03482337668538094</v>
+        <v>0.03779530469328165</v>
       </c>
       <c r="E83" t="n">
         <v>10000000</v>
       </c>
       <c r="F83" t="n">
-        <v>10976192.425</v>
+        <v>10836641.25</v>
       </c>
       <c r="G83" t="n">
-        <v>0</v>
+        <v>129</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -2612,16 +2612,16 @@
         <v>89</v>
       </c>
       <c r="D84" t="n">
-        <v>0.02838807553052902</v>
+        <v>0.03003640929237008</v>
       </c>
       <c r="E84" t="n">
-        <v>10020518.245</v>
+        <v>10038873.2275</v>
       </c>
       <c r="F84" t="n">
-        <v>10020518.245</v>
+        <v>10038873.2275</v>
       </c>
       <c r="G84" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -2635,16 +2635,16 @@
         <v>90</v>
       </c>
       <c r="D85" t="n">
-        <v>0.04570803791284561</v>
+        <v>0.04163285158574581</v>
       </c>
       <c r="E85" t="n">
-        <v>10309662.544</v>
+        <v>10367241.6</v>
       </c>
       <c r="F85" t="n">
-        <v>10309662.544</v>
+        <v>10367241.6</v>
       </c>
       <c r="G85" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -2658,16 +2658,16 @@
         <v>91</v>
       </c>
       <c r="D86" t="n">
-        <v>0.02645178139209747</v>
+        <v>0.02084249081090093</v>
       </c>
       <c r="E86" t="n">
-        <v>9591859.75</v>
+        <v>9840010.862500001</v>
       </c>
       <c r="F86" t="n">
-        <v>9591859.75</v>
+        <v>9629609.5375</v>
       </c>
       <c r="G86" t="n">
-        <v>54</v>
+        <v>3831</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -2681,16 +2681,16 @@
         <v>92</v>
       </c>
       <c r="D87" t="n">
-        <v>0.01743590086698532</v>
+        <v>0.01587426699697971</v>
       </c>
       <c r="E87" t="n">
-        <v>10035469.195</v>
+        <v>10057456.375</v>
       </c>
       <c r="F87" t="n">
-        <v>10717737.325</v>
+        <v>10674346.96</v>
       </c>
       <c r="G87" t="n">
-        <v>0</v>
+        <v>77</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -2704,16 +2704,16 @@
         <v>93</v>
       </c>
       <c r="D88" t="n">
-        <v>0.03794660419225693</v>
+        <v>0.03951907828450203</v>
       </c>
       <c r="E88" t="n">
         <v>10000000</v>
       </c>
       <c r="F88" t="n">
-        <v>11164717.6</v>
+        <v>9910290.565000001</v>
       </c>
       <c r="G88" t="n">
-        <v>0</v>
+        <v>107</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -2727,16 +2727,16 @@
         <v>94</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0219877827912569</v>
+        <v>0.01149189551360905</v>
       </c>
       <c r="E89" t="n">
-        <v>11205170.4875</v>
+        <v>10154198.7125</v>
       </c>
       <c r="F89" t="n">
-        <v>10782532.27</v>
+        <v>10557750.075</v>
       </c>
       <c r="G89" t="n">
-        <v>0</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -2750,16 +2750,16 @@
         <v>95</v>
       </c>
       <c r="D90" t="n">
-        <v>0.02762986533343792</v>
+        <v>0.01443404406309128</v>
       </c>
       <c r="E90" t="n">
-        <v>9243526.880000001</v>
+        <v>9697473.77</v>
       </c>
       <c r="F90" t="n">
-        <v>9243526.880000001</v>
+        <v>9708517.65</v>
       </c>
       <c r="G90" t="n">
-        <v>0</v>
+        <v>179</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -2773,16 +2773,16 @@
         <v>96</v>
       </c>
       <c r="D91" t="n">
-        <v>0.03235751017928123</v>
+        <v>0.03193292692303658</v>
       </c>
       <c r="E91" t="n">
-        <v>10802521.3105</v>
+        <v>9549918.904500004</v>
       </c>
       <c r="F91" t="n">
-        <v>11242503.6715</v>
+        <v>10457179.03</v>
       </c>
       <c r="G91" t="n">
-        <v>56</v>
+        <v>929</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -2796,16 +2796,16 @@
         <v>97</v>
       </c>
       <c r="D92" t="n">
-        <v>0.04996885731816292</v>
+        <v>0.04906941596418619</v>
       </c>
       <c r="E92" t="n">
         <v>10000000</v>
       </c>
       <c r="F92" t="n">
-        <v>9585674.9</v>
+        <v>9661796.049999999</v>
       </c>
       <c r="G92" t="n">
-        <v>0</v>
+        <v>133</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -2819,16 +2819,16 @@
         <v>98</v>
       </c>
       <c r="D93" t="n">
-        <v>0.03081357851624489</v>
+        <v>0.01320806960575283</v>
       </c>
       <c r="E93" t="n">
-        <v>10621102.313</v>
+        <v>10374740.661</v>
       </c>
       <c r="F93" t="n">
-        <v>10621102.313</v>
+        <v>10679052.862</v>
       </c>
       <c r="G93" t="n">
-        <v>0</v>
+        <v>772</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -2842,16 +2842,16 @@
         <v>99</v>
       </c>
       <c r="D94" t="n">
-        <v>0.01107262168079615</v>
+        <v>0.003870807460043579</v>
       </c>
       <c r="E94" t="n">
-        <v>9691011.981999999</v>
+        <v>9654441.296</v>
       </c>
       <c r="F94" t="n">
-        <v>9691011.981999999</v>
+        <v>9654441.296</v>
       </c>
       <c r="G94" t="n">
-        <v>0</v>
+        <v>9401</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -2865,16 +2865,16 @@
         <v>100</v>
       </c>
       <c r="D95" t="n">
-        <v>0.004844524431973696</v>
+        <v>0.004497729893773794</v>
       </c>
       <c r="E95" t="n">
         <v>10000000</v>
       </c>
       <c r="F95" t="n">
-        <v>12052327.8972</v>
+        <v>11883842.5732</v>
       </c>
       <c r="G95" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -2888,16 +2888,16 @@
         <v>101</v>
       </c>
       <c r="D96" t="n">
-        <v>0.03670156374573708</v>
+        <v>0.0350602250546217</v>
       </c>
       <c r="E96" t="n">
         <v>10000000</v>
       </c>
       <c r="F96" t="n">
-        <v>9992694.975</v>
+        <v>9640649.800000001</v>
       </c>
       <c r="G96" t="n">
-        <v>0</v>
+        <v>117</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -2911,16 +2911,16 @@
         <v>102</v>
       </c>
       <c r="D97" t="n">
-        <v>0.02686464972794056</v>
+        <v>0.0296374729834497</v>
       </c>
       <c r="E97" t="n">
-        <v>9003687.470000001</v>
+        <v>8881777.862</v>
       </c>
       <c r="F97" t="n">
-        <v>9003687.470000001</v>
+        <v>8881777.862</v>
       </c>
       <c r="G97" t="n">
-        <v>0</v>
+        <v>76</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -2934,16 +2934,16 @@
         <v>103</v>
       </c>
       <c r="D98" t="n">
-        <v>0.01347459200769663</v>
+        <v>0.01378899565897882</v>
       </c>
       <c r="E98" t="n">
         <v>10000000</v>
       </c>
       <c r="F98" t="n">
-        <v>10972778.502</v>
+        <v>10788237.241</v>
       </c>
       <c r="G98" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -2957,16 +2957,16 @@
         <v>104</v>
       </c>
       <c r="D99" t="n">
-        <v>0.04993010312318802</v>
+        <v>0.06542860455811024</v>
       </c>
       <c r="E99" t="n">
         <v>9884601.860000001</v>
       </c>
       <c r="F99" t="n">
-        <v>10048181.325</v>
+        <v>9638712.880000001</v>
       </c>
       <c r="G99" t="n">
-        <v>24</v>
+        <v>120</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -2980,16 +2980,16 @@
         <v>105</v>
       </c>
       <c r="D100" t="n">
-        <v>0.04767286404967308</v>
+        <v>0.05008454937487841</v>
       </c>
       <c r="E100" t="n">
-        <v>10761678.045</v>
+        <v>10569805.7875</v>
       </c>
       <c r="F100" t="n">
-        <v>10851166.475</v>
+        <v>11242957.1425</v>
       </c>
       <c r="G100" t="n">
-        <v>1</v>
+        <v>4425</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -3003,16 +3003,16 @@
         <v>106</v>
       </c>
       <c r="D101" t="n">
-        <v>0.02767043374478817</v>
+        <v>0.005131920520216227</v>
       </c>
       <c r="E101" t="n">
-        <v>10000000</v>
+        <v>10127671.358</v>
       </c>
       <c r="F101" t="n">
         <v>9767115.07</v>
       </c>
       <c r="G101" t="n">
-        <v>0</v>
+        <v>13345</v>
       </c>
     </row>
   </sheetData>
